--- a/1_Maths Functions.xlsx
+++ b/1_Maths Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\excel\Practice_Datasets2007171855262208081447492208101218141220816222542-221017-130042\2.Excel_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCAB038-1639-4913-8228-96A94945C432}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8732879-19A4-4A83-9262-9AF42BA40384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>Region</t>
   </si>
@@ -218,6 +218,24 @@
   <si>
     <t>A015</t>
   </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Roundup</t>
+  </si>
+  <si>
+    <t>Rounddown</t>
+  </si>
+  <si>
+    <t>Ceiling</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
 </sst>
 </file>
 
@@ -334,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -357,12 +375,16 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -583,7 +605,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -697,12 +719,24 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="T3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -734,7 +768,7 @@
         <v>695.25</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="15" t="s">
         <v>43</v>
       </c>
       <c r="M4" s="13"/>
@@ -744,12 +778,30 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="T4" s="2">
+        <f>ROUND(J4,1)</f>
+        <v>695.3</v>
+      </c>
+      <c r="U4" s="2">
+        <f>INT(J4)</f>
+        <v>695</v>
+      </c>
+      <c r="V4" s="2">
+        <f>ROUNDUP(J4,1)</f>
+        <v>695.30000000000007</v>
+      </c>
+      <c r="W4" s="2">
+        <f>ROUNDDOWN(J4,1)</f>
+        <v>695.2</v>
+      </c>
+      <c r="X4" s="2">
+        <f>CEILING(J4,1)</f>
+        <v>696</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>FLOOR(J4,1)</f>
+        <v>695</v>
+      </c>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -781,7 +833,7 @@
         <v>398.75</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="15"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -789,12 +841,30 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="T5" s="2">
+        <f t="shared" ref="T5:T19" si="1">ROUND(J5,1)</f>
+        <v>398.8</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" ref="U5:U18" si="2">INT(J5)</f>
+        <v>398</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" ref="V5:V21" si="3">ROUNDUP(J5,1)</f>
+        <v>398.8</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" ref="W5:W21" si="4">ROUNDDOWN(J5,1)</f>
+        <v>398.7</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" ref="X5:X21" si="5">CEILING(J5,1)</f>
+        <v>399</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" ref="Y5:Y21" si="6">FLOOR(J5,1)</f>
+        <v>398</v>
+      </c>
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -834,12 +904,30 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="T6" s="2">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="5"/>
+        <v>365</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -871,7 +959,7 @@
         <v>387.25</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="15" t="s">
         <v>51</v>
       </c>
       <c r="M7" s="13"/>
@@ -881,12 +969,30 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="T7" s="2">
+        <f t="shared" si="1"/>
+        <v>387.3</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="2"/>
+        <v>387</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="3"/>
+        <v>387.3</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="4"/>
+        <v>387.2</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="5"/>
+        <v>388</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="6"/>
+        <v>387</v>
+      </c>
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -918,7 +1024,7 @@
         <v>357.57</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
@@ -926,12 +1032,30 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="14"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="T8" s="2">
+        <f t="shared" si="1"/>
+        <v>357.6</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="3"/>
+        <v>357.6</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="4"/>
+        <v>357.5</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="6"/>
+        <v>357</v>
+      </c>
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -971,12 +1095,30 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="T9" s="2">
+        <f t="shared" si="1"/>
+        <v>412.5</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="2"/>
+        <v>412</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="3"/>
+        <v>412.5</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="4"/>
+        <v>412.5</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="5"/>
+        <v>413</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="6"/>
+        <v>412</v>
+      </c>
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1008,7 +1150,7 @@
         <v>595.76</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="15" t="s">
         <v>55</v>
       </c>
       <c r="M10" s="13"/>
@@ -1018,12 +1160,30 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="T10" s="2">
+        <f t="shared" si="1"/>
+        <v>595.79999999999995</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="2"/>
+        <v>595</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="3"/>
+        <v>595.80000000000007</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="4"/>
+        <v>595.70000000000005</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="5"/>
+        <v>596</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="6"/>
+        <v>595</v>
+      </c>
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1055,7 +1215,7 @@
         <v>444.84999999999997</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -1063,12 +1223,30 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="14"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="T11" s="2">
+        <f t="shared" si="1"/>
+        <v>444.9</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="2"/>
+        <v>444</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="3"/>
+        <v>444.90000000000003</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="4"/>
+        <v>444.8</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="5"/>
+        <v>445</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="6"/>
+        <v>444</v>
+      </c>
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1108,12 +1286,30 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="T12" s="2">
+        <f t="shared" si="1"/>
+        <v>533.4</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="2"/>
+        <v>533</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="3"/>
+        <v>533.4</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="4"/>
+        <v>533.4</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="5"/>
+        <v>534</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="6"/>
+        <v>533</v>
+      </c>
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1153,12 +1349,30 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="T13" s="2">
+        <f t="shared" si="1"/>
+        <v>399.3</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="3"/>
+        <v>399.3</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="4"/>
+        <v>399.2</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="6"/>
+        <v>399</v>
+      </c>
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1197,7 +1411,7 @@
         <v>42</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" ref="N14:N15" si="1">SUMIFS($J$4:$J$18,$F$4:$F$18,L14,$G$4:$G$18,M14)</f>
+        <f t="shared" ref="N14:N15" si="7">SUMIFS($J$4:$J$18,$F$4:$F$18,L14,$G$4:$G$18,M14)</f>
         <v>474.15000000000003</v>
       </c>
       <c r="O14" s="2"/>
@@ -1205,12 +1419,30 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="T14" s="2">
+        <f t="shared" si="1"/>
+        <v>696.8</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="2"/>
+        <v>696</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" si="3"/>
+        <v>696.8</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="4"/>
+        <v>696.8</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="5"/>
+        <v>697</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="6"/>
+        <v>696</v>
+      </c>
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1249,7 +1481,7 @@
         <v>50</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1037.47</v>
       </c>
       <c r="O15" s="2"/>
@@ -1257,12 +1489,30 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="T15" s="2">
+        <f t="shared" si="1"/>
+        <v>592.6</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="2"/>
+        <v>592</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" si="3"/>
+        <v>592.70000000000005</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="4"/>
+        <v>592.6</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="5"/>
+        <v>593</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="6"/>
+        <v>592</v>
+      </c>
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1302,12 +1552,30 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="T16" s="2">
+        <f t="shared" si="1"/>
+        <v>474.2</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="2"/>
+        <v>474</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" si="3"/>
+        <v>474.20000000000005</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="4"/>
+        <v>474.1</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="5"/>
+        <v>475</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="6"/>
+        <v>474</v>
+      </c>
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1347,12 +1615,30 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="T17" s="2">
+        <f t="shared" si="1"/>
+        <v>550.6</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="3"/>
+        <v>550.70000000000005</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="4"/>
+        <v>550.6</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" si="5"/>
+        <v>551</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="6"/>
+        <v>550</v>
+      </c>
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1392,12 +1678,30 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="T18" s="2">
+        <f t="shared" si="1"/>
+        <v>513.5</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="2"/>
+        <v>513</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" si="3"/>
+        <v>513.5</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="4"/>
+        <v>513.4</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="5"/>
+        <v>514</v>
+      </c>
+      <c r="Y18" s="2">
+        <f t="shared" si="6"/>
+        <v>513</v>
+      </c>
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1423,15 +1727,30 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="T19" s="2">
+        <f t="shared" si="1"/>
+        <v>7417.3</v>
+      </c>
       <c r="U19" s="2">
         <f>MOD(20,4)</f>
         <v>0</v>
       </c>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="V19" s="2">
+        <f t="shared" si="3"/>
+        <v>7417.3</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="4"/>
+        <v>7417.2</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="5"/>
+        <v>7418</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="6"/>
+        <v>7417</v>
+      </c>
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1459,10 +1778,22 @@
         <f>FACT(3)</f>
         <v>6</v>
       </c>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="V20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1490,10 +1821,22 @@
         <f>SQRT(25)</f>
         <v>5</v>
       </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="V21" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
